--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="460" windowWidth="22040" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="22040" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dorms" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="483">
   <si>
     <t>name</t>
   </si>
@@ -159,13 +159,7 @@
     <t>1835 Hinman/Willard</t>
   </si>
   <si>
-    <t>1835 Hinman</t>
-  </si>
-  <si>
     <t>I love having laundry on every floor. I don’t have to bring my laundry up and down stairs or use an elevator. I can do it any time of the day because there’s usually no one else doing laundry at the same time. I never have to wait for a dryer or a washer - it’s amazing. If you’re looking for a really social dorm where you’re going to be best friends with everyone in your hall, this is not the place for you, but if you want a little bit of a social atmosphere and somewhere quiet to come home to at the end of the night, it’s a great place to live,</t>
-  </si>
-  <si>
-    <t>1835-hinman</t>
   </si>
   <si>
     <t xml:space="preserve">Elizabeth Byrne, Medill freshman
@@ -1526,6 +1520,15 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Willard at 1835</t>
+  </si>
+  <si>
+    <t>1835-hinman</t>
+  </si>
+  <si>
+    <t>1835 Hinman</t>
   </si>
 </sst>
 </file>
@@ -2065,10 +2068,10 @@
   <dimension ref="A1:Y94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2159,16 +2162,16 @@
     </row>
     <row r="2" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>482</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>480</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>481</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>248</v>
+        <v>468</v>
       </c>
       <c r="E2" s="1" t="b">
         <v>1</v>
@@ -2177,10 +2180,10 @@
         <v>216</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
@@ -2198,7 +2201,7 @@
         <v>3.5</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O2" s="1">
         <v>56</v>
@@ -2226,10 +2229,10 @@
         <v>3</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="104" x14ac:dyDescent="0.15">
@@ -2237,13 +2240,13 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E3" s="1" t="b">
         <v>1</v>
@@ -2252,10 +2255,10 @@
         <v>363</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
@@ -2273,7 +2276,7 @@
         <v>2.5</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O3" s="1">
         <v>8</v>
@@ -2303,24 +2306,24 @@
         <v>3</v>
       </c>
       <c r="X3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E4" s="1" t="b">
         <v>1</v>
@@ -2329,10 +2332,10 @@
         <v>170</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>0</v>
@@ -2350,7 +2353,7 @@
         <v>3.7</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O4" s="1">
         <v>14</v>
@@ -2378,24 +2381,24 @@
         <v>16</v>
       </c>
       <c r="X4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>1</v>
@@ -2404,10 +2407,10 @@
         <v>496</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>0</v>
@@ -2425,7 +2428,7 @@
         <v>4.3</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O5" s="1">
         <v>17</v>
@@ -2453,24 +2456,24 @@
         <v>12</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>1</v>
@@ -2479,10 +2482,10 @@
         <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>0</v>
@@ -2500,7 +2503,7 @@
         <v>3.5</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O6" s="1">
         <v>3</v>
@@ -2528,24 +2531,24 @@
         <v>6</v>
       </c>
       <c r="X6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y6" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>1</v>
@@ -2554,10 +2557,10 @@
         <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>0</v>
@@ -2575,7 +2578,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O7" s="1">
         <v>18</v>
@@ -2587,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S7" s="6">
         <v>9147</v>
@@ -2605,24 +2608,24 @@
         <v>11</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y7" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="130" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>1</v>
@@ -2631,10 +2634,10 @@
         <v>109</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>0</v>
@@ -2652,7 +2655,7 @@
         <v>4.8</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O8" s="1">
         <v>31</v>
@@ -2680,24 +2683,24 @@
         <v>2</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y8" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>1</v>
@@ -2706,10 +2709,10 @@
         <v>345</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
@@ -2727,7 +2730,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O9" s="1">
         <v>19</v>
@@ -2739,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S9" s="6">
         <v>9147</v>
@@ -2755,24 +2758,24 @@
         <v>14</v>
       </c>
       <c r="X9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y9" s="20" t="s">
         <v>212</v>
-      </c>
-      <c r="Y9" s="20" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="104" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>1</v>
@@ -2781,10 +2784,10 @@
         <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>0</v>
@@ -2802,7 +2805,7 @@
         <v>3.5</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O10" s="1">
         <v>32</v>
@@ -2814,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S10" s="6">
         <v>9147</v>
@@ -2832,21 +2835,21 @@
         <v>11</v>
       </c>
       <c r="Y10" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -2855,10 +2858,10 @@
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>0</v>
@@ -2876,7 +2879,7 @@
         <v>3.3</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O11" s="1">
         <v>16</v>
@@ -2906,24 +2909,24 @@
         <v>3</v>
       </c>
       <c r="X11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y11" s="20" t="s">
         <v>242</v>
-      </c>
-      <c r="Y11" s="20" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="39" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -2932,10 +2935,10 @@
         <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>0</v>
@@ -2953,7 +2956,7 @@
         <v>2.5</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O12" s="1">
         <v>13</v>
@@ -2965,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S12" s="6">
         <v>9147</v>
@@ -2981,21 +2984,21 @@
         <v>8</v>
       </c>
       <c r="Y12" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="65" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>0</v>
@@ -3004,10 +3007,10 @@
         <v>157</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
@@ -3025,7 +3028,7 @@
         <v>2.6</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O13" s="1">
         <v>7</v>
@@ -3053,24 +3056,24 @@
         <v>11</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Y13" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="91" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>1</v>
@@ -3079,10 +3082,10 @@
         <v>140</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>0</v>
@@ -3100,7 +3103,7 @@
         <v>5</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O14" s="1">
         <v>74</v>
@@ -3128,21 +3131,21 @@
         <v>15</v>
       </c>
       <c r="Y14" s="24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="143" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>1</v>
@@ -3151,10 +3154,10 @@
         <v>106</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>0</v>
@@ -3172,7 +3175,7 @@
         <v>3.5</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O15" s="1">
         <v>30</v>
@@ -3200,24 +3203,24 @@
         <v>1</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y15" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="208" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E16" s="4" t="b">
         <v>1</v>
@@ -3226,10 +3229,10 @@
         <v>72</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>0</v>
@@ -3247,16 +3250,16 @@
         <v>3</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="P16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Q16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="R16" s="34">
         <v>10322</v>
@@ -3274,21 +3277,21 @@
         <v>2</v>
       </c>
       <c r="Y16" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="117" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>1</v>
@@ -3297,10 +3300,10 @@
         <v>74</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I17" s="4" t="b">
         <v>0</v>
@@ -3318,16 +3321,16 @@
         <v>3</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="P17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Q17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="R17" s="34">
         <v>10322</v>
@@ -3345,21 +3348,21 @@
         <v>4</v>
       </c>
       <c r="Y17" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="70" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>248</v>
+        <v>468</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>1</v>
@@ -3368,10 +3371,10 @@
         <v>153</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I18" s="4" t="b">
         <v>0</v>
@@ -3389,7 +3392,7 @@
         <v>4.08</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O18">
         <v>7</v>
@@ -3413,21 +3416,21 @@
         <v>5</v>
       </c>
       <c r="Y18" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="56" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>1</v>
@@ -3436,10 +3439,10 @@
         <v>582</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I19" s="4" t="b">
         <v>1</v>
@@ -3457,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O19">
         <v>582</v>
@@ -3472,21 +3475,21 @@
         <v>4</v>
       </c>
       <c r="Y19" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E20" s="4" t="b">
         <v>1</v>
@@ -3495,10 +3498,10 @@
         <v>422</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I20" s="4" t="b">
         <v>0</v>
@@ -3514,16 +3517,16 @@
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Q20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="R20" s="34">
         <v>10925</v>
@@ -3544,16 +3547,16 @@
     </row>
     <row r="21" spans="1:25" ht="144" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E21" s="4" t="b">
         <v>1</v>
@@ -3562,10 +3565,10 @@
         <v>120</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I21" s="4" t="b">
         <v>0</v>
@@ -3583,7 +3586,7 @@
         <v>2.7</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O21" s="4">
         <v>6</v>
@@ -3607,21 +3610,21 @@
         <v>2</v>
       </c>
       <c r="Y21" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="56" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E22" s="4" t="b">
         <v>1</v>
@@ -3630,10 +3633,10 @@
         <v>37</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I22" s="4" t="b">
         <v>0</v>
@@ -3648,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O22" s="4">
         <v>37</v>
@@ -5125,10 +5128,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
@@ -5136,83 +5139,83 @@
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>40</v>
@@ -5220,13 +5223,13 @@
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>40</v>
@@ -5234,13 +5237,13 @@
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>40</v>
@@ -5248,13 +5251,13 @@
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>40</v>
@@ -5262,730 +5265,730 @@
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>126</v>
-      </c>
       <c r="C25" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="D34" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="D47" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="C54" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="D57" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="26" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="52" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B64" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="B64" s="29" t="s">
-        <v>350</v>
-      </c>
       <c r="C64" s="30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -6037,10 +6040,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
@@ -6051,10 +6054,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -6065,10 +6068,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
@@ -6076,49 +6079,49 @@
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>40</v>
@@ -6126,422 +6129,422 @@
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>287</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>321</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>326</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>368</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B31" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="C31" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>387</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B36" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>422</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B37" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>428</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6566,156 +6569,156 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B3" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="D3" s="36" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="D4" s="36" t="s">
         <v>417</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="C5" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>423</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>429</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="36" t="s">
         <v>436</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="C8" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>441</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="D9" s="36" t="s">
         <v>445</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="D10" s="36" t="s">
         <v>450</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="D11" s="36" t="s">
         <v>454</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7208,34 +7211,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
